--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2063.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2063.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165354595851934</v>
+        <v>0.9009016752243042</v>
       </c>
       <c r="B1">
-        <v>2.825270452365445</v>
+        <v>3.551664352416992</v>
       </c>
       <c r="C1">
-        <v>4.671116502328609</v>
+        <v>4.238682746887207</v>
       </c>
       <c r="D1">
-        <v>2.999821242941216</v>
+        <v>2.667722940444946</v>
       </c>
       <c r="E1">
-        <v>1.205886177807231</v>
+        <v>1.055494070053101</v>
       </c>
     </row>
   </sheetData>
